--- a/project/ConsolidationFiles/Consolidation recettes transport du 01-06-2022 au 07-06-2022.xlsx
+++ b/project/ConsolidationFiles/Consolidation recettes transport du 01-06-2022 au 07-06-2022.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eh.aitmamaich\Desktop\CONSO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01C69F-A44E-4849-A53C-398E2513CF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="CONSO" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CONSO!$B$12:$AR$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -110,15 +104,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot; &quot;[$€-40C]&quot; &quot;#,##0.00&quot; &quot;;&quot; &quot;[$€-40C]&quot; &quot;#,##0.00&quot;-&quot;;&quot; &quot;[$€-40C]&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot; &quot;#,##0&quot;   &quot;;&quot;-&quot;#,##0&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="169" formatCode="mmm"/>
-    <numFmt numFmtId="170" formatCode="0&quot; &quot;;&quot;-&quot;0&quot; &quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot; &quot;[$€-40C]&quot; &quot;#,##0.00&quot; &quot;;&quot; &quot;[$€-40C]&quot; &quot;#,##0.00&quot;-&quot;;&quot; &quot;[$€-40C]&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot; &quot;#,##0&quot;   &quot;;&quot;-&quot;#,##0&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="168" formatCode="mmm"/>
+    <numFmt numFmtId="169" formatCode="0&quot; &quot;;&quot;-&quot;0&quot; &quot;"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -958,7 +952,7 @@
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1023,14 +1017,14 @@
     <xf numFmtId="0" fontId="14" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="24" applyProtection="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="24" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1057,7 +1051,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="32" borderId="30" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="32" borderId="30" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
@@ -1101,7 +1095,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,25 +1108,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,86 +1179,86 @@
     </xf>
   </cellXfs>
   <cellStyles count="80">
-    <cellStyle name="_Classeur1" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_DECL_TVA_03_2007" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_PREPARATION TVA 03-07" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_PREPARATION TVA 03-07 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_SIDECLTVA08 2006" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_SIDECLTVA08 2006 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_SUIVI DES INPUT" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_SUIVI DES INPUT 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="_SUIVI NDF 03-2006" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="_SUIVI NDF 04-2006" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="0,0_x000a_NA_x000a_" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20 % - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20 % - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20 % - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20 % - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20 % - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20 % - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="40 % - Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40 % - Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="40 % - Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40 % - Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="40 % - Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40 % - Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="60 % - Accent1 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60 % - Accent2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="60 % - Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="60 % - Accent4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="60 % - Accent5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="60 % - Accent6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Accent1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Accent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Accent3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Accent4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Accent5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Avertissement 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Calcul 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Cellule liée 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="cf1" xfId="47" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Comma_Préparation Réglement DHL MAY08" xfId="48" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Commentaire 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Entrée 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Euro" xfId="51" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Insatisfaisant 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="_Classeur1" xfId="9"/>
+    <cellStyle name="_DECL_TVA_03_2007" xfId="10"/>
+    <cellStyle name="_PREPARATION TVA 03-07" xfId="11"/>
+    <cellStyle name="_PREPARATION TVA 03-07 2" xfId="12"/>
+    <cellStyle name="_SIDECLTVA08 2006" xfId="13"/>
+    <cellStyle name="_SIDECLTVA08 2006 2" xfId="14"/>
+    <cellStyle name="_SUIVI DES INPUT" xfId="15"/>
+    <cellStyle name="_SUIVI DES INPUT 2" xfId="16"/>
+    <cellStyle name="_SUIVI NDF 03-2006" xfId="17"/>
+    <cellStyle name="_SUIVI NDF 04-2006" xfId="18"/>
+    <cellStyle name="0,0_x000a_NA_x000a_" xfId="19"/>
+    <cellStyle name="20 % - Accent1 2" xfId="20"/>
+    <cellStyle name="20 % - Accent2 2" xfId="21"/>
+    <cellStyle name="20 % - Accent3 2" xfId="22"/>
+    <cellStyle name="20 % - Accent4 2" xfId="23"/>
+    <cellStyle name="20 % - Accent5 2" xfId="24"/>
+    <cellStyle name="20 % - Accent6 2" xfId="25"/>
+    <cellStyle name="40 % - Accent1 2" xfId="26"/>
+    <cellStyle name="40 % - Accent2 2" xfId="27"/>
+    <cellStyle name="40 % - Accent3 2" xfId="28"/>
+    <cellStyle name="40 % - Accent4 2" xfId="29"/>
+    <cellStyle name="40 % - Accent5 2" xfId="30"/>
+    <cellStyle name="40 % - Accent6 2" xfId="31"/>
+    <cellStyle name="60 % - Accent1 2" xfId="32"/>
+    <cellStyle name="60 % - Accent2 2" xfId="33"/>
+    <cellStyle name="60 % - Accent3 2" xfId="34"/>
+    <cellStyle name="60 % - Accent4 2" xfId="35"/>
+    <cellStyle name="60 % - Accent5 2" xfId="36"/>
+    <cellStyle name="60 % - Accent6 2" xfId="37"/>
+    <cellStyle name="Accent1 2" xfId="38"/>
+    <cellStyle name="Accent2 2" xfId="39"/>
+    <cellStyle name="Accent3 2" xfId="40"/>
+    <cellStyle name="Accent4 2" xfId="41"/>
+    <cellStyle name="Accent5 2" xfId="42"/>
+    <cellStyle name="Accent6 2" xfId="43"/>
+    <cellStyle name="Avertissement 2" xfId="44"/>
+    <cellStyle name="Calcul 2" xfId="45"/>
+    <cellStyle name="Cellule liée 2" xfId="46"/>
+    <cellStyle name="cf1" xfId="47"/>
+    <cellStyle name="Comma_Préparation Réglement DHL MAY08" xfId="48"/>
+    <cellStyle name="Commentaire 2" xfId="49"/>
+    <cellStyle name="Entrée 2" xfId="50"/>
+    <cellStyle name="Euro" xfId="51"/>
+    <cellStyle name="Insatisfaisant 2" xfId="52"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Milliers 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Milliers 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Month" xfId="55" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Neutre 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Milliers 2" xfId="53"/>
+    <cellStyle name="Milliers 3" xfId="54"/>
+    <cellStyle name="Month" xfId="55"/>
+    <cellStyle name="Neutre 2" xfId="56"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 11" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Normal 2_ATW CASA V1-13 2008 11 03" xfId="60" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Normal 4" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Normal 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Normal 72 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Normal 9" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Pourcentage 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Pourcentage 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Satisfaisant 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Sortie 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Style 1" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Style 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Texte explicatif 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Titre 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Titre 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Titre 1 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Titre 1 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Titre 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Titre 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Titre 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Total 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Totals" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Vérification 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 10" xfId="57"/>
+    <cellStyle name="Normal 11" xfId="58"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 2 2" xfId="59"/>
+    <cellStyle name="Normal 2_ATW CASA V1-13 2008 11 03" xfId="60"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 3 2" xfId="8"/>
+    <cellStyle name="Normal 4" xfId="61"/>
+    <cellStyle name="Normal 6" xfId="62"/>
+    <cellStyle name="Normal 72 4" xfId="5"/>
+    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 9" xfId="63"/>
+    <cellStyle name="Pourcentage 2" xfId="64"/>
+    <cellStyle name="Pourcentage 3" xfId="65"/>
+    <cellStyle name="Satisfaisant 2" xfId="66"/>
+    <cellStyle name="Sortie 2" xfId="67"/>
+    <cellStyle name="Style 1" xfId="68"/>
+    <cellStyle name="Style 3" xfId="6"/>
+    <cellStyle name="Texte explicatif 2" xfId="69"/>
+    <cellStyle name="Titre 2" xfId="70"/>
+    <cellStyle name="Titre 3" xfId="71"/>
+    <cellStyle name="Titre 1 2" xfId="72"/>
+    <cellStyle name="Titre 1 3" xfId="73"/>
+    <cellStyle name="Titre 2 2" xfId="74"/>
+    <cellStyle name="Titre 3 2" xfId="75"/>
+    <cellStyle name="Titre 4 2" xfId="76"/>
+    <cellStyle name="Total 2" xfId="77"/>
+    <cellStyle name="Totals" xfId="78"/>
+    <cellStyle name="Vérification 2" xfId="79"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1299,7 +1293,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="logo signature">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4C3C84-5295-4B06-B758-ED0A9D5A5EF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4C3C84-5295-4B06-B758-ED0A9D5A5EF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1346,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1E7B98-BB79-43A8-9B34-4C56AA97C8DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1E7B98-BB79-43A8-9B34-4C56AA97C8DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,26 +1451,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,23 +1486,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1701,18 +1661,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AR42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,171 +4051,171 @@
         <v>20</v>
       </c>
       <c r="C27" s="21">
-        <f>SUM(C13:C26)</f>
+        <f t="shared" ref="C27:AQ27" si="1">SUM(C13:C26)</f>
         <v>187813</v>
       </c>
       <c r="D27" s="21">
-        <f>SUM(D13:D26)</f>
+        <f t="shared" si="1"/>
         <v>496967</v>
       </c>
       <c r="E27" s="21">
-        <f>SUM(E13:E26)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="F27" s="21">
-        <f>SUM(F13:F26)</f>
+        <f t="shared" si="1"/>
         <v>939</v>
       </c>
       <c r="G27" s="21">
-        <f>SUM(G13:G26)</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="H27" s="21">
-        <f>SUM(H13:H26)</f>
+        <f t="shared" si="1"/>
         <v>3562</v>
       </c>
       <c r="I27" s="21">
-        <f>SUM(I13:I26)</f>
+        <f t="shared" si="1"/>
         <v>1690</v>
       </c>
       <c r="J27" s="21">
-        <f>SUM(J13:J26)</f>
+        <f t="shared" si="1"/>
         <v>27151</v>
       </c>
       <c r="K27" s="21">
-        <f>SUM(K13:K26)</f>
+        <f t="shared" si="1"/>
         <v>877</v>
       </c>
       <c r="L27" s="21">
-        <f>SUM(L13:L26)</f>
+        <f t="shared" si="1"/>
         <v>3199</v>
       </c>
       <c r="M27" s="21">
-        <f>SUM(M13:M26)</f>
+        <f t="shared" si="1"/>
         <v>1148</v>
       </c>
       <c r="N27" s="21">
-        <f>SUM(N13:N26)</f>
+        <f t="shared" si="1"/>
         <v>10981</v>
       </c>
       <c r="O27" s="21">
-        <f>SUM(O13:O26)</f>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="P27" s="21">
-        <f>SUM(P13:P26)</f>
+        <f t="shared" si="1"/>
         <v>42886</v>
       </c>
       <c r="Q27" s="21">
-        <f>SUM(Q13:Q26)</f>
+        <f t="shared" si="1"/>
         <v>1121</v>
       </c>
       <c r="R27" s="21">
-        <f>SUM(R13:R26)</f>
+        <f t="shared" si="1"/>
         <v>1590</v>
       </c>
       <c r="S27" s="21">
-        <f>SUM(S13:S26)</f>
+        <f t="shared" si="1"/>
         <v>481</v>
       </c>
       <c r="T27" s="21">
-        <f>SUM(T13:T26)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="U27" s="21">
-        <f>SUM(U13:U26)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="V27" s="21">
-        <f>SUM(V13:V26)</f>
+        <f t="shared" si="1"/>
         <v>375626</v>
       </c>
       <c r="W27" s="21">
-        <f>SUM(W13:W26)</f>
+        <f t="shared" si="1"/>
         <v>2981802</v>
       </c>
       <c r="X27" s="21">
-        <f>SUM(X13:X26)</f>
+        <f t="shared" si="1"/>
         <v>36600</v>
       </c>
       <c r="Y27" s="21">
-        <f>SUM(Y13:Y26)</f>
+        <f t="shared" si="1"/>
         <v>215970</v>
       </c>
       <c r="Z27" s="21">
-        <f>SUM(Z13:Z26)</f>
+        <f t="shared" si="1"/>
         <v>22950</v>
       </c>
       <c r="AA27" s="21">
-        <f>SUM(AA13:AA26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB27" s="21">
-        <f>SUM(AB13:AB26)</f>
+        <f t="shared" si="1"/>
         <v>7124</v>
       </c>
       <c r="AC27" s="21">
-        <f>SUM(AC13:AC26)</f>
+        <f t="shared" si="1"/>
         <v>25350</v>
       </c>
       <c r="AD27" s="21">
-        <f>SUM(AD13:AD26)</f>
+        <f t="shared" si="1"/>
         <v>162906</v>
       </c>
       <c r="AE27" s="21">
-        <f>SUM(AE13:AE26)</f>
+        <f t="shared" si="1"/>
         <v>52620</v>
       </c>
       <c r="AF27" s="21">
-        <f>SUM(AF13:AF26)</f>
+        <f t="shared" si="1"/>
         <v>735770</v>
       </c>
       <c r="AG27" s="21">
-        <f>SUM(AG13:AG26)</f>
+        <f t="shared" si="1"/>
         <v>172200</v>
       </c>
       <c r="AH27" s="21">
-        <f>SUM(AH13:AH26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI27" s="21">
-        <f>SUM(AI13:AI26)</f>
+        <f t="shared" si="1"/>
         <v>21962</v>
       </c>
       <c r="AJ27" s="21">
-        <f>SUM(AJ13:AJ26)</f>
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
       <c r="AK27" s="21">
-        <f>SUM(AK13:AK26)</f>
+        <f t="shared" si="1"/>
         <v>257316</v>
       </c>
       <c r="AL27" s="21">
-        <f>SUM(AL13:AL26)</f>
+        <f t="shared" si="1"/>
         <v>67260</v>
       </c>
       <c r="AM27" s="21">
-        <f>SUM(AM13:AM26)</f>
+        <f t="shared" si="1"/>
         <v>365700</v>
       </c>
       <c r="AN27" s="21">
-        <f>SUM(AN13:AN26)</f>
+        <f t="shared" si="1"/>
         <v>72150</v>
       </c>
       <c r="AO27" s="21">
-        <f>SUM(AO13:AO26)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="AP27" s="21">
-        <f>SUM(AP13:AP26)</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="AQ27" s="21">
-        <f>SUM(AQ13:AQ26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR27" s="16">
-        <f t="shared" ref="AR27" si="1">SUM(V27:AQ27)</f>
+        <f t="shared" ref="AR27" si="2">SUM(V27:AQ27)</f>
         <v>5580766</v>
       </c>
     </row>
